--- a/Experimentos2/TOPSIS.xlsx
+++ b/Experimentos2/TOPSIS.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>19:41:54.190352</t>
-  </si>
-  <si>
-    <t>19:41:54.248176</t>
+    <t>00:17:12.789162</t>
+  </si>
+  <si>
+    <t>00:17:12.814730</t>
   </si>
   <si>
     <t>C1</t>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45328</v>
+        <v>45333</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>6.692592592592592E-07</v>
+        <v>2.959259259259259E-07</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -827,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Experimentos2/TOPSIS.xlsx
+++ b/Experimentos2/TOPSIS.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>00:17:12.789162</t>
-  </si>
-  <si>
-    <t>00:17:12.814730</t>
+    <t>00:32:56.823598</t>
+  </si>
+  <si>
+    <t>00:32:56.840763</t>
   </si>
   <si>
     <t>C1</t>
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>2.959259259259259E-07</v>
+        <v>1.986689814814815E-07</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -827,7 +827,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -835,7 +835,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">

--- a/Experimentos2/TOPSIS.xlsx
+++ b/Experimentos2/TOPSIS.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>00:32:56.823598</t>
-  </si>
-  <si>
-    <t>00:32:56.840763</t>
+    <t>17:02:33.706827</t>
+  </si>
+  <si>
+    <t>17:02:33.740395</t>
   </si>
   <si>
     <t>C1</t>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45333</v>
+        <v>45334</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>1.986689814814815E-07</v>
+        <v>3.885185185185185E-07</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/TOPSIS.xlsx
+++ b/Experimentos2/TOPSIS.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>17:02:33.706827</t>
-  </si>
-  <si>
-    <t>17:02:33.740395</t>
+    <t>15:02:11.659067</t>
+  </si>
+  <si>
+    <t>15:02:11.706079</t>
   </si>
   <si>
     <t>C1</t>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45334</v>
+        <v>45340</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>3.885185185185185E-07</v>
+        <v>5.441203703703703E-07</v>
       </c>
     </row>
   </sheetData>

--- a/Experimentos2/TOPSIS.xlsx
+++ b/Experimentos2/TOPSIS.xlsx
@@ -37,10 +37,10 @@
     <t>TOPSIS</t>
   </si>
   <si>
-    <t>15:02:11.659067</t>
-  </si>
-  <si>
-    <t>15:02:11.706079</t>
+    <t>09:55:10.584777</t>
+  </si>
+  <si>
+    <t>09:55:10.655071</t>
   </si>
   <si>
     <t>C1</t>
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>45340</v>
+        <v>45344</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="3">
-        <v>5.441203703703703E-07</v>
+        <v>8.135879629629629E-07</v>
       </c>
     </row>
   </sheetData>
